--- a/Mapping & Combinations/Mapping.xlsx
+++ b/Mapping & Combinations/Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\VSCode_Projects\Aging provision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\VSCode_Projects\Aging provision\Mapping &amp; Combinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A6020-5C2F-402C-AF6E-4C308205CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297097D-E4E3-4BEC-80F5-5404A4B1F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{CD00EB3E-CCA0-4732-A00D-C86DFE050CA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD00EB3E-CCA0-4732-A00D-C86DFE050CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="93">
   <si>
     <t>GROUP_NAME</t>
   </si>
@@ -291,6 +291,33 @@
   </si>
   <si>
     <t>ESTEE LAUDER</t>
+  </si>
+  <si>
+    <t>Sgt. Major</t>
+  </si>
+  <si>
+    <t>FG4</t>
+  </si>
+  <si>
+    <t>UNDIZ</t>
+  </si>
+  <si>
+    <t>GERRY WEBER</t>
+  </si>
+  <si>
+    <t>QUIZ</t>
+  </si>
+  <si>
+    <t>LIPSY</t>
+  </si>
+  <si>
+    <t>IKKS</t>
+  </si>
+  <si>
+    <t>BIJOU BRIGITTE</t>
+  </si>
+  <si>
+    <t>BIZOU</t>
   </si>
 </sst>
 </file>
@@ -673,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751CC922-6FD3-4B87-A5DC-BB31F563A5B1}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,6 +1720,132 @@
         <v>66</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D72" xr:uid="{751CC922-6FD3-4B87-A5DC-BB31F563A5B1}"/>
   <conditionalFormatting sqref="A1:A56 A58:A1048576">
